--- a/matrizBuena.xlsx
+++ b/matrizBuena.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belen\Desktop\LenguajesYAutomatas2\Automatas1\BSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8762F36A-CA08-4001-AFC6-5D2D3120DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69626EAA-2E6D-4A61-AE2B-CB38303E924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CA29B72B-D969-4399-95EF-98D12FF71897}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="19560" xr2:uid="{CA29B72B-D969-4399-95EF-98D12FF71897}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="97">
+  <fills count="98">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,6 +1067,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1222,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1965,6 +1971,9 @@
     <xf numFmtId="0" fontId="0" fillId="95" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
@@ -2296,11 +2305,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14759FE2-6061-47BA-9FDA-64B3F5BFD275}">
   <dimension ref="A1:CO189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BK108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="BU131" sqref="BU131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9893,11 +9902,11 @@
       <c r="D28" s="10">
         <v>167</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
+        <v>167</v>
+      </c>
+      <c r="F28" s="11">
         <v>27</v>
-      </c>
-      <c r="F28" s="10">
-        <v>167</v>
       </c>
       <c r="G28" s="10">
         <v>167</v>
@@ -38888,8 +38897,8 @@
       <c r="BT131" s="4">
         <v>177</v>
       </c>
-      <c r="BU131" s="4">
-        <v>177</v>
+      <c r="BU131" s="276">
+        <v>125</v>
       </c>
       <c r="BV131" s="4">
         <v>177</v>

--- a/matrizBuena.xlsx
+++ b/matrizBuena.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belen\Desktop\LenguajesYAutomatas2\Automatas1\BSharp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\source\repos\bsoez\BSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69626EAA-2E6D-4A61-AE2B-CB38303E924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70261823-1D07-41B9-BED6-18F655966905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="19560" xr2:uid="{CA29B72B-D969-4399-95EF-98D12FF71897}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CA29B72B-D969-4399-95EF-98D12FF71897}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>A</t>
   </si>
@@ -1074,7 +1074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1115,17 +1115,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1228,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1448,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,76 +1649,76 @@
     <xf numFmtId="0" fontId="0" fillId="61" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="65" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1747,22 +1736,22 @@
     <xf numFmtId="0" fontId="0" fillId="67" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="68" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1782,7 +1771,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="70" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="71" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1795,7 +1784,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="72" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="73" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1812,10 +1801,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="75" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="76" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1838,10 +1827,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="78" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="80" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,7 +1854,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="82" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="64" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="68" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,10 +1876,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="85" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="86" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1944,7 +1933,7 @@
     <xf numFmtId="0" fontId="0" fillId="94" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="95" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,13 +1948,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="95" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1976,7 +1959,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
+    <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2007,7 +1990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2305,14 +2288,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14759FE2-6061-47BA-9FDA-64B3F5BFD275}">
   <dimension ref="A1:CO189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BK108" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BC76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BU131" sqref="BU131"/>
+      <selection pane="bottomRight" activeCell="CH102" sqref="CH102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" customWidth="1"/>
@@ -2328,29 +2311,29 @@
     <col min="37" max="37" width="6" customWidth="1"/>
     <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6" customWidth="1"/>
-    <col min="40" max="40" width="4.88671875" customWidth="1"/>
-    <col min="41" max="41" width="5.109375" customWidth="1"/>
+    <col min="40" max="40" width="4.85546875" customWidth="1"/>
+    <col min="41" max="41" width="5.140625" customWidth="1"/>
     <col min="42" max="42" width="5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="5" customWidth="1"/>
-    <col min="44" max="44" width="5.6640625" customWidth="1"/>
-    <col min="45" max="45" width="5.109375" customWidth="1"/>
+    <col min="44" max="44" width="5.7109375" customWidth="1"/>
+    <col min="45" max="45" width="5.140625" customWidth="1"/>
     <col min="46" max="46" width="5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6" customWidth="1"/>
-    <col min="48" max="52" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.88671875" customWidth="1"/>
+    <col min="48" max="52" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.85546875" customWidth="1"/>
     <col min="54" max="65" width="5" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="5" customWidth="1"/>
     <col min="67" max="83" width="5" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="88" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="88" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="5" customWidth="1"/>
-    <col min="90" max="90" width="5.33203125" customWidth="1"/>
-    <col min="91" max="91" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="7.33203125" customWidth="1"/>
-    <col min="93" max="93" width="4.44140625" customWidth="1"/>
+    <col min="90" max="90" width="5.28515625" customWidth="1"/>
+    <col min="91" max="91" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.28515625" customWidth="1"/>
+    <col min="93" max="93" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="163"/>
       <c r="B1" s="163" t="s">
         <v>0</v>
@@ -2629,7 +2612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="164">
         <v>0</v>
       </c>
@@ -2908,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163">
         <v>1</v>
       </c>
@@ -3187,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="163">
         <v>2</v>
       </c>
@@ -3466,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="163">
         <v>3</v>
       </c>
@@ -3745,7 +3728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="163">
         <v>4</v>
       </c>
@@ -4024,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="163">
         <v>5</v>
       </c>
@@ -4303,7 +4286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="163">
         <v>6</v>
       </c>
@@ -4582,7 +4565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="163">
         <v>7</v>
       </c>
@@ -4863,7 +4846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="163">
         <v>8</v>
       </c>
@@ -5142,7 +5125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="163">
         <v>9</v>
       </c>
@@ -5421,7 +5404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="163">
         <v>10</v>
       </c>
@@ -5700,7 +5683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="163">
         <v>11</v>
       </c>
@@ -5979,7 +5962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="163">
         <v>12</v>
       </c>
@@ -6258,7 +6241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="163">
         <v>13</v>
       </c>
@@ -6537,7 +6520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="163">
         <v>14</v>
       </c>
@@ -6816,7 +6799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="163">
         <v>15</v>
       </c>
@@ -7095,7 +7078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="163">
         <v>16</v>
       </c>
@@ -7376,7 +7359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="163">
         <v>17</v>
       </c>
@@ -7655,7 +7638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="163">
         <v>18</v>
       </c>
@@ -7934,7 +7917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="163">
         <v>19</v>
       </c>
@@ -8213,7 +8196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="163">
         <v>20</v>
       </c>
@@ -8492,7 +8475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="163">
         <v>21</v>
       </c>
@@ -8771,7 +8754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="163">
         <v>22</v>
       </c>
@@ -9050,7 +9033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="163">
         <v>23</v>
       </c>
@@ -9331,7 +9314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="163">
         <v>24</v>
       </c>
@@ -9610,7 +9593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="163">
         <v>25</v>
       </c>
@@ -9889,7 +9872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="163">
         <v>26</v>
       </c>
@@ -10168,7 +10151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="163">
         <v>27</v>
       </c>
@@ -10447,7 +10430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="163">
         <v>28</v>
       </c>
@@ -10726,7 +10709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="163">
         <v>29</v>
       </c>
@@ -11007,7 +10990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="163">
         <v>30</v>
       </c>
@@ -11286,7 +11269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="163">
         <v>31</v>
       </c>
@@ -11565,7 +11548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="163">
         <v>32</v>
       </c>
@@ -11844,7 +11827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="163">
         <v>33</v>
       </c>
@@ -12123,7 +12106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="163">
         <v>34</v>
       </c>
@@ -12402,7 +12385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="163">
         <v>35</v>
       </c>
@@ -12683,7 +12666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="163">
         <v>36</v>
       </c>
@@ -12962,7 +12945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="163">
         <v>37</v>
       </c>
@@ -13241,7 +13224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="163">
         <v>38</v>
       </c>
@@ -13522,7 +13505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="163">
         <v>39</v>
       </c>
@@ -13801,7 +13784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="163">
         <v>40</v>
       </c>
@@ -14080,7 +14063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="163">
         <v>41</v>
       </c>
@@ -14359,7 +14342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="163">
         <v>42</v>
       </c>
@@ -14638,7 +14621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="163">
         <v>43</v>
       </c>
@@ -14917,7 +14900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="163">
         <v>44</v>
       </c>
@@ -15196,7 +15179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="163">
         <v>45</v>
       </c>
@@ -15477,7 +15460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="163">
         <v>46</v>
       </c>
@@ -15756,7 +15739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="163">
         <v>47</v>
       </c>
@@ -16035,7 +16018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="163">
         <v>48</v>
       </c>
@@ -16314,7 +16297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="163">
         <v>49</v>
       </c>
@@ -16593,7 +16576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="163">
         <v>50</v>
       </c>
@@ -16874,7 +16857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="163">
         <v>51</v>
       </c>
@@ -17153,7 +17136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="163">
         <v>52</v>
       </c>
@@ -17432,7 +17415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="163">
         <v>53</v>
       </c>
@@ -17711,7 +17694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="163">
         <v>54</v>
       </c>
@@ -17990,7 +17973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="163">
         <v>55</v>
       </c>
@@ -18269,7 +18252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="163">
         <v>56</v>
       </c>
@@ -18548,7 +18531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="163">
         <v>57</v>
       </c>
@@ -18827,7 +18810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="163">
         <v>58</v>
       </c>
@@ -19106,7 +19089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="163">
         <v>59</v>
       </c>
@@ -19387,7 +19370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="163">
         <v>60</v>
       </c>
@@ -19666,7 +19649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="163">
         <v>61</v>
       </c>
@@ -19945,7 +19928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="163">
         <v>62</v>
       </c>
@@ -20224,7 +20207,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="163">
         <v>63</v>
       </c>
@@ -20503,7 +20486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="163">
         <v>64</v>
       </c>
@@ -20782,7 +20765,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="163">
         <v>65</v>
       </c>
@@ -21061,7 +21044,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="163">
         <v>66</v>
       </c>
@@ -21342,7 +21325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="163">
         <v>67</v>
       </c>
@@ -21621,7 +21604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="163">
         <v>68</v>
       </c>
@@ -21900,7 +21883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="163">
         <v>69</v>
       </c>
@@ -22179,7 +22162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="163">
         <v>70</v>
       </c>
@@ -22458,7 +22441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="163">
         <v>71</v>
       </c>
@@ -22739,7 +22722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="163">
         <v>72</v>
       </c>
@@ -23018,7 +23001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="163">
         <v>73</v>
       </c>
@@ -23297,7 +23280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="163">
         <v>74</v>
       </c>
@@ -23576,7 +23559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="163">
         <v>75</v>
       </c>
@@ -23855,7 +23838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="163">
         <v>76</v>
       </c>
@@ -24134,7 +24117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="163">
         <v>77</v>
       </c>
@@ -24415,7 +24398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="163">
         <v>78</v>
       </c>
@@ -24694,7 +24677,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="163">
         <v>79</v>
       </c>
@@ -24973,7 +24956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="163">
         <v>80</v>
       </c>
@@ -25254,7 +25237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="163">
         <v>81</v>
       </c>
@@ -25533,7 +25516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="163">
         <v>82</v>
       </c>
@@ -25812,7 +25795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="163">
         <v>83</v>
       </c>
@@ -26093,7 +26076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="163">
         <v>84</v>
       </c>
@@ -26372,7 +26355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="163">
         <v>85</v>
       </c>
@@ -26651,7 +26634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="163">
         <v>86</v>
       </c>
@@ -26930,7 +26913,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="163">
         <v>87</v>
       </c>
@@ -27209,7 +27192,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="163">
         <v>88</v>
       </c>
@@ -27488,7 +27471,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="163">
         <v>89</v>
       </c>
@@ -27767,7 +27750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="163">
         <v>90</v>
       </c>
@@ -28046,7 +28029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="163">
         <v>91</v>
       </c>
@@ -28325,7 +28308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="163">
         <v>92</v>
       </c>
@@ -28604,7 +28587,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="163">
         <v>93</v>
       </c>
@@ -28885,7 +28868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="163">
         <v>94</v>
       </c>
@@ -29164,7 +29147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="163">
         <v>95</v>
       </c>
@@ -29445,7 +29428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="163">
         <v>96</v>
       </c>
@@ -29716,17 +29699,15 @@
       <c r="CL98" s="74">
         <v>96</v>
       </c>
-      <c r="CM98" s="271">
-        <v>169</v>
-      </c>
-      <c r="CN98" s="272">
-        <v>169</v>
-      </c>
+      <c r="CM98" s="74">
+        <v>96</v>
+      </c>
+      <c r="CN98" s="74"/>
       <c r="CO98" s="80">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="163">
         <v>97</v>
       </c>
@@ -29997,17 +29978,17 @@
       <c r="CL99" s="155">
         <v>169</v>
       </c>
-      <c r="CM99" s="273">
+      <c r="CM99" s="272">
         <v>98</v>
       </c>
-      <c r="CN99" s="274">
-        <v>169</v>
+      <c r="CN99" s="273" t="s">
+        <v>115</v>
       </c>
       <c r="CO99" s="80">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="163">
         <v>98</v>
       </c>
@@ -30281,14 +30262,14 @@
       <c r="CM100" s="271">
         <v>169</v>
       </c>
-      <c r="CN100" s="275" t="s">
+      <c r="CN100" s="273" t="s">
         <v>115</v>
       </c>
       <c r="CO100" s="80">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="163">
         <v>99</v>
       </c>
@@ -30567,7 +30548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="163">
         <v>100</v>
       </c>
@@ -30848,7 +30829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="163">
         <v>101</v>
       </c>
@@ -31127,7 +31108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="163">
         <v>102</v>
       </c>
@@ -31408,7 +31389,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="163">
         <v>103</v>
       </c>
@@ -31687,7 +31668,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="163">
         <v>104</v>
       </c>
@@ -31968,7 +31949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="163">
         <v>105</v>
       </c>
@@ -32247,7 +32228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="163">
         <v>106</v>
       </c>
@@ -32528,7 +32509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="163">
         <v>107</v>
       </c>
@@ -32807,7 +32788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="163">
         <v>108</v>
       </c>
@@ -33086,7 +33067,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="163">
         <v>109</v>
       </c>
@@ -33365,7 +33346,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="163">
         <v>110</v>
       </c>
@@ -33644,7 +33625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="163">
         <v>111</v>
       </c>
@@ -33923,7 +33904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="163">
         <v>112</v>
       </c>
@@ -34202,7 +34183,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="163">
         <v>113</v>
       </c>
@@ -34481,7 +34462,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="163">
         <v>114</v>
       </c>
@@ -34762,7 +34743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="163">
         <v>115</v>
       </c>
@@ -35041,7 +35022,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="163">
         <v>116</v>
       </c>
@@ -35320,7 +35301,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="163">
         <v>117</v>
       </c>
@@ -35601,7 +35582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="163">
         <v>118</v>
       </c>
@@ -35880,7 +35861,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="163">
         <v>119</v>
       </c>
@@ -36159,7 +36140,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="163">
         <v>120</v>
       </c>
@@ -36440,7 +36421,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="163">
         <v>121</v>
       </c>
@@ -36719,7 +36700,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="163">
         <v>122</v>
       </c>
@@ -37000,7 +36981,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="163">
         <v>123</v>
       </c>
@@ -37279,7 +37260,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="163">
         <v>124</v>
       </c>
@@ -37560,7 +37541,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="163">
         <v>125</v>
       </c>
@@ -37839,7 +37820,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="163">
         <v>126</v>
       </c>
@@ -38120,7 +38101,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="163">
         <v>127</v>
       </c>
@@ -38399,7 +38380,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="163">
         <v>128</v>
       </c>
@@ -38680,7 +38661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="163">
         <v>129</v>
       </c>
@@ -38897,7 +38878,7 @@
       <c r="BT131" s="4">
         <v>177</v>
       </c>
-      <c r="BU131" s="276">
+      <c r="BU131" s="274">
         <v>125</v>
       </c>
       <c r="BV131" s="4">
@@ -38959,7 +38940,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="163">
         <v>130</v>
       </c>
@@ -39240,7 +39221,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="163">
         <v>131</v>
       </c>
@@ -39519,7 +39500,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="163">
         <v>132</v>
       </c>
@@ -39800,7 +39781,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="163">
         <v>133</v>
       </c>
@@ -40079,7 +40060,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="163">
         <v>134</v>
       </c>
@@ -40360,7 +40341,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="163">
         <v>135</v>
       </c>
@@ -40641,7 +40622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="163">
         <v>136</v>
       </c>
@@ -40922,7 +40903,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="192">
         <v>137</v>
       </c>
@@ -41201,7 +41182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="163">
         <v>138</v>
       </c>
@@ -41482,7 +41463,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="163">
         <v>139</v>
       </c>
@@ -41761,7 +41742,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="163">
         <v>140</v>
       </c>
@@ -42042,7 +42023,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="163">
         <v>141</v>
       </c>
@@ -42321,7 +42302,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="163">
         <v>142</v>
       </c>
@@ -42602,7 +42583,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="163">
         <v>143</v>
       </c>
@@ -42881,7 +42862,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="163">
         <v>144</v>
       </c>
@@ -43162,7 +43143,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="163">
         <v>145</v>
       </c>
@@ -43441,7 +43422,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="163">
         <v>146</v>
       </c>
@@ -43722,7 +43703,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="163">
         <v>147</v>
       </c>
@@ -44001,7 +43982,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="163">
         <v>148</v>
       </c>
@@ -44282,7 +44263,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="163">
         <v>149</v>
       </c>
@@ -44561,7 +44542,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="163">
         <v>150</v>
       </c>
@@ -44842,7 +44823,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="163">
         <v>151</v>
       </c>
@@ -45121,7 +45102,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="163">
         <v>152</v>
       </c>
@@ -45402,7 +45383,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="163">
         <v>153</v>
       </c>
@@ -45681,7 +45662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="163">
         <v>154</v>
       </c>
@@ -45962,7 +45943,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="163">
         <v>155</v>
       </c>
@@ -46241,7 +46222,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="163">
         <v>156</v>
       </c>
@@ -46522,7 +46503,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="163">
         <v>157</v>
       </c>
@@ -46801,7 +46782,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="163">
         <v>158</v>
       </c>
@@ -47082,7 +47063,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="163">
         <v>159</v>
       </c>
@@ -47363,7 +47344,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="163">
         <v>160</v>
       </c>
@@ -47644,7 +47625,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="163">
         <v>161</v>
       </c>
@@ -47925,7 +47906,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="163">
         <v>162</v>
       </c>
@@ -48206,7 +48187,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="163">
         <v>163</v>
       </c>
@@ -48485,7 +48466,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="163">
         <v>164</v>
       </c>
@@ -48766,7 +48747,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="163">
         <v>165</v>
       </c>
@@ -49045,7 +49026,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="163">
         <v>166</v>
       </c>
@@ -49326,7 +49307,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="163">
         <v>167</v>
       </c>
@@ -49605,7 +49586,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="163">
         <v>168</v>
       </c>
@@ -49886,7 +49867,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="163">
         <v>169</v>
       </c>
@@ -50165,7 +50146,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="163">
         <v>170</v>
       </c>
@@ -50446,7 +50427,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="163">
         <v>171</v>
       </c>
@@ -50725,7 +50706,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="163">
         <v>172</v>
       </c>
@@ -51006,7 +50987,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="163">
         <v>173</v>
       </c>
@@ -51285,7 +51266,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
         <v>174</v>
       </c>
@@ -51566,7 +51547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
         <v>175</v>
       </c>
@@ -51845,7 +51826,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
         <v>176</v>
       </c>
@@ -52126,7 +52107,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
         <v>177</v>
       </c>
@@ -52405,7 +52386,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
         <v>178</v>
       </c>
@@ -52686,7 +52667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
         <v>179</v>
       </c>
@@ -52965,7 +52946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
         <v>180</v>
       </c>
@@ -53246,7 +53227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
         <v>181</v>
       </c>
@@ -53525,7 +53506,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
         <v>182</v>
       </c>
@@ -53806,7 +53787,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A185" s="57"/>
       <c r="B185" s="57"/>
       <c r="C185" s="57"/>
@@ -53899,7 +53880,7 @@
       <c r="CL185" s="57"/>
       <c r="CM185" s="57"/>
     </row>
-    <row r="186" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A186" s="57"/>
       <c r="B186" s="57"/>
       <c r="C186" s="57"/>
@@ -53992,7 +53973,7 @@
       <c r="CL186" s="57"/>
       <c r="CM186" s="57"/>
     </row>
-    <row r="187" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A187" s="57"/>
       <c r="B187" s="57"/>
       <c r="C187" s="57"/>
@@ -54085,7 +54066,7 @@
       <c r="CL187" s="57"/>
       <c r="CM187" s="57"/>
     </row>
-    <row r="188" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A188" s="57"/>
       <c r="B188" s="57"/>
       <c r="C188" s="57"/>
@@ -54178,7 +54159,7 @@
       <c r="CL188" s="57"/>
       <c r="CM188" s="57"/>
     </row>
-    <row r="189" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A189" s="57"/>
       <c r="B189" s="57"/>
       <c r="C189" s="57"/>
